--- a/optcpt.xlsx
+++ b/optcpt.xlsx
@@ -14,31 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
-  <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>News, Brie Larson had teased on Tuesday night about how she intended to break the Internet with Entertainment
- Weekly aiding and abetting. Now both have gone and done just that as we finally got our first official glimpse of the Oscar-winning actress as Captain Marvel.</t>
-  </si>
-  <si>
-    <t>Bharath</t>
-  </si>
-  <si>
-    <t>Software engineer</t>
-  </si>
-  <si>
-    <t>Rambabu</t>
-  </si>
-  <si>
-    <t>Life is a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venki </t>
-  </si>
-  <si>
-    <t>smart boy and waste fellow some times</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">Nanda </t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Test engineer</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>Tech Engineer</t>
   </si>
 </sst>
 </file>
@@ -418,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,10 +425,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,88 +436,40 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/optcpt.xlsx
+++ b/optcpt.xlsx
@@ -14,24 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Nanda </t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Test engineer</t>
-  </si>
-  <si>
-    <t>Ajay</t>
-  </si>
-  <si>
-    <t>Harish</t>
-  </si>
-  <si>
-    <t>Tech Engineer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>OPT &amp; CPT FAQ's - 1</t>
+  </si>
+  <si>
+    <t>On your First day in any organisation what type of questions your manager or team lead will ask?</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 2</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 3</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 4</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 5</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 6</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 7</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 8</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 9</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 10</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 11</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 12</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 13</t>
+  </si>
+  <si>
+    <t>OPT &amp; CPT FAQ's - 14</t>
+  </si>
+  <si>
+    <t>What type of requests you will get and which team help you required to work on day to day job life?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If any questions raised in client call and if you are not aware of those then how you should be answerable?</t>
+  </si>
+  <si>
+    <t>To deliver a project which teams involvements should be there?</t>
+  </si>
+  <si>
+    <t>Which ticketing tool you are using?</t>
+  </si>
+  <si>
+    <t>How to raise an incident and RFC in Servicenow, Remedy, JIRA &amp; HPSM9 etc…</t>
+  </si>
+  <si>
+    <t>How to schedule a meeting in Microsoft outlook, Google Hangouts and Webex?</t>
+  </si>
+  <si>
+    <t>How to take a remote machine desktop from your local machine?</t>
+  </si>
+  <si>
+    <t>How to check the ipaddress of a machine?</t>
+  </si>
+  <si>
+    <t>How to check what softwares were installed in any machine?</t>
+  </si>
+  <si>
+    <t>Before sharing your screen via cisco webex, ammyy admin,Team viewer or skype just check with seniors you can do it or not ?</t>
+  </si>
+  <si>
+    <t>Learn few basics about axile &amp; scrum ?</t>
+  </si>
+  <si>
+    <t>What is SDLC model ? If you are working on any project what are the basic things to learn ?</t>
+  </si>
+  <si>
+    <t>Email discussions happened with your clients. ( The reason I am asking is Tomorrow if any email should be written by me, your email keywords will be helpful for us. ) no need to forward the emails. Just show the earlier discussions.</t>
   </si>
 </sst>
 </file>
@@ -47,18 +113,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -81,7 +141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -432,11 +491,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -444,32 +503,104 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
